--- a/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,1</t>
+          <t>22,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>19,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>19,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,65%</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>74,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>60,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53,23%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,52; 30,46</t>
+          <t>12,75; 33,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,68; 26,19</t>
+          <t>8,15; 29,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 32,57</t>
+          <t>8,65; 29,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,27; 125,01</t>
+          <t>7,99; 32,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 104,91</t>
+          <t>34,08; 137,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,4; 133,64</t>
+          <t>20,62; 113,99</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23,78; 127,05</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 125,29</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29,15%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 16,85</t>
+          <t>-14,52; 8,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 21,56</t>
+          <t>-6,72; 14,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 26,49</t>
+          <t>-3,73; 19,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 52,18</t>
+          <t>-1,74; 24,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 84,46</t>
+          <t>-31,28; 26,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 106,91</t>
+          <t>-18,26; 59,54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 76,67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 78,0</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,83</t>
+          <t>21,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>23,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>80,92%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38,87%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 39,29</t>
+          <t>-5,71; 51,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 42,23</t>
+          <t>-3,6; 49,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 42,33</t>
+          <t>-11,63; 46,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 206,09</t>
+          <t>-11,51; 51,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 250,44</t>
+          <t>-12,76; 335,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 197,58</t>
+          <t>-10,71; 329,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-24,08; 242,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; 246,8</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>44,06%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41,93%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 21,47</t>
+          <t>4,41; 19,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 22,34</t>
+          <t>6,15; 20,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 26,69</t>
+          <t>6,55; 21,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 74,12</t>
+          <t>7,22; 25,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,74; 85,17</t>
+          <t>11,06; 66,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,93; 99,95</t>
+          <t>18,54; 80,74</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19,1; 84,33</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 81,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>22,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>19,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,75</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>74,86%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>60,11%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>65,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>53,23%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>25.07497968917409</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>18.20775070459478</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>17.83423964537683</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>20.18929261726599</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.843949257595584</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5481516040622061</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.597960118201695</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5491473355000017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 33,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 29,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8,65; 29,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,99; 32,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>34,08; 137,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>20,62; 113,99</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>23,78; 127,05</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>17,96; 125,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15.23489880572067</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.604290186534644</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>7.536245645397393</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7.911759392499615</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.4213849199668215</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1622700282019018</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1995476496284271</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.196177468349034</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>35.13564277417446</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.62410403755623</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.51662873936197</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>33.18876722058997</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.482891230894005</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.04409005297067</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.19243593687688</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.295680522082078</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,64%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; 8,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 14,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 19,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 24,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-31,28; 26,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-18,26; 59,54</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 76,67</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 78,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.680988692443681</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.807154369261996</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.412937090542068</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>11.62123641479489</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.06833316668326424</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1623232364759853</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.317053288840087</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3249524939339821</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>21,24</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>23,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>15,92</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>60,71%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>80,92%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>42,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>38,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.16935378185528</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.04370964646378</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.935649492151618</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.164041888851432</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3220667004313151</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1768689021146283</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.08244954144226452</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03345309623192144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 51,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 49,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,63; 46,75</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 51,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; 335,32</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; 329,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-24,08; 242,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,45; 246,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.723393879989594</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.702421477855</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20.34173188499111</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.74099099685903</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3123554530467175</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.683648681735719</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8333104161413041</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8489819758754219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,28</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,63</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,92</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>44,06%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>46,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>41,93%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>23.0013981354467</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>26.50154823389087</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>17.3227921775062</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>19.08728983781138</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.6580442841227685</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.8884692254305256</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4657389469182097</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4498612635305024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 19,84</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 20,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 21,52</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 25,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11,06; 66,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>18,54; 80,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>19,1; 84,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 81,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.082194715548017</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.903820375071669</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.91906776688541</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.699177636034991</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.09748740213498162</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.07094349694336785</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.199335343346625</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1662500563939495</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>51.72261489111948</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>51.64973754656292</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>47.66455258877274</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>51.53561831100283</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.338668283332149</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.222439407477405</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.373820221969285</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.59250389603353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>13.58478624008933</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.78128908123994</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>14.30996511861609</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>16.66416509085542</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3968187422040201</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.4399510600089472</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4682049561574954</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4501131423286141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.974906384132233</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.371267366523988</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.74288025930868</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.985057444435142</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.131770762070814</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1750546436384919</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1907124892555547</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1843057369113595</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.05042170269998</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>21.03441789232544</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21.49548904952743</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25.79090012020487</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.7101830442249745</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7946547137261525</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8423561484750034</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8226722450790895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
